--- a/similarities/split_global/harmonic_similarity_timestamps_87.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000'), ('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:20.580000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:06.800000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E:7', 'A:maj', 'E:7/G#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+          <t>('0:00:06.040000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:06.040000', '0:02:07.580000')]</t>
+          <t>('0:00:07.760000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=7.76</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.240000', '0:00:24.820000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:54.820000', '0:01:01.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:06.610000', '0:00:10.460000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:09.979342', '0:00:16.701519')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=9.979342</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['G:7', 'C:min', 'G:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['B:7', 'E:min', 'B:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
+          <t>('0:00:18.220000', '0:00:21.630000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000'), ('0:00:00.220000', '0:00:03.440000')]</t>
+          <t>('0:02:09.100000', '0:02:15.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=18.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=129.1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D/5', 'A', 'D', 'A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['D/5', 'A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.140000', '0:00:14.340000'), ('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:40.821000', '0:00:49.282000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000')]</t>
+          <t>('0:00:27.963197', '0:00:43.926916')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=40.821</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=27.963197</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=229.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:min', 'G#:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'G:7']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:25.734081', '0:00:32.897437')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.660000', '0:00:12.510000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=25.734081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=9.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:33.140000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>jaah_60</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['E:min7', 'A:7', 'A:min7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['E:min7', 'A:7', 'A:min7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:45.780000')]</t>
+          <t>('0:00:18.620000', '0:00:21.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:04.830000', '0:00:07.280000')]</t>
+          <t>('0:00:50.680000', '0:00:55.680000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=18.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=50.68</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:43.340000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Bb:7', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:55.728276', '0:02:04.366099'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:01:07.760000', '0:01:17.500000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:52.500000', '0:00:57.750000'), ('0:00:23.910000', '0:00:25.870000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=115.728276', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=52.5', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:00:24.640000', '0:00:33')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000'), ('0:00:26.360000', '0:00:34.360000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
